--- a/biology/Microbiologie/Cryptochilum/Cryptochilum.xlsx
+++ b/biology/Microbiologie/Cryptochilum/Cryptochilum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptochilum est un genre de Ciliés de la famille des Cryptochilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des ciliés exclusivement marins[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des ciliés exclusivement marins.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (4 octobre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (4 octobre 2023) :
 Cryptochilum echini Cuenot, 1912
 Cryptochilum reniforme Petz, Song &amp; Wilbert, 1995
 Noms en synonymie
 Cryptochilum elegans Maupas, 1883 = Uronema elegans (Maupas, 1883)
-Selon GBIF       (4 octobre 2023)[2] :
+Selon GBIF       (4 octobre 2023) :
 Cryptochilum boreale Hentschel, 1924
 Cryptochilum echini Cuenot, 1912
 Cryptochilum echini Maupas, 1883
@@ -585,9 +601,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cryptochilum Maupas, 1883[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cryptochilum Maupas, 1883.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>E. Maupas, « Contribution à l'étude morphologique et anatomique des infusoires ciliés », Archives de Zoologie Expérimentale et Générale, vol. 1,‎ 1883 (lire en ligne  [PDF])</t>
         </is>
